--- a/va_facility_data_2025-02-20/Cincinnati VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Cincinnati%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cincinnati VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Cincinnati%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R43e1f10c96d84343ad182e3b63326bf8"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ra62d4ee0a8354fcf97ef1c0e4888dbf6"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc4c43bd13de841679bdccee63d504555"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9435478f6f7447b6b637d4b8c72e6a25"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R381ecaf8dded47de986855a38e2111f0"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbb57fb59a71b493882b3ff3cb016412a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R8114975c579c4b6594cd67bc6bf57b20"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R6533289975a84df99c5b02ab2b44a09c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rdfb97fe2b6b846ecba2047e034e380dd"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re0229c8d85eb4e52ae7f129cbb4ca567"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd31c8473a16f487ab29df574bd4cfb16"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R02f4f28594eb46dc96f7f009d233fb28"/>
   </x:sheets>
 </x:workbook>
 </file>
